--- a/meta/en/10-2-1.xlsx
+++ b/meta/en/10-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,22 +103,6 @@
     <t>10.2.1. Proportion of people living below 50 per cent of median income, by sex, age and persons with disabilities</t>
   </si>
   <si>
-    <t>National Statistics Committee of the Kyrgyz Republic (Household Statistics Division)
-The National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Y. I. Kalymbetova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y.Kalymbetova@stat.kg </t>
-  </si>
-  <si>
-    <t>(312) 66 41 64</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">The proportion of people living below 50 percent of median income (or consumption) is the share (%) of a country’s population living on less than half of the consumption/income level of the median of the national income/consumption distribution. </t>
   </si>
   <si>
@@ -150,6 +134,21 @@
   </si>
   <si>
     <t>The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -559,7 +558,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -626,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -634,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -642,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -672,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -686,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -708,7 +707,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +715,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -724,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -744,7 +743,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -752,7 +751,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +759,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
